--- a/graphics_generation/elisa/tecan/elisa_anti_pvx_30_min.xlsx
+++ b/graphics_generation/elisa/tecan/elisa_anti_pvx_30_min.xlsx
@@ -162,13 +162,13 @@
     <t>Datum:</t>
   </si>
   <si>
-    <t>26.06.2025</t>
+    <t>30.06.2025</t>
   </si>
   <si>
     <t>Zeit:</t>
   </si>
   <si>
-    <t>15:16:43</t>
+    <t>14:22:51</t>
   </si>
   <si>
     <t>System</t>
@@ -234,16 +234,16 @@
     <t>Bereich der Platte</t>
   </si>
   <si>
-    <t>B1-G12</t>
+    <t>B2-G11</t>
   </si>
   <si>
     <t>Startzeit:</t>
   </si>
   <si>
-    <t>26.06.2025 15:16:48</t>
-  </si>
-  <si>
-    <t>Temperatur: 25.2 °C</t>
+    <t>30.06.2025 14:22:56</t>
+  </si>
+  <si>
+    <t>Temperatur: 27.8 °C</t>
   </si>
   <si>
     <t>&lt;&gt;</t>
@@ -270,7 +270,7 @@
     <t>Endzeit:</t>
   </si>
   <si>
-    <t>26.06.2025 15:17:47</t>
+    <t>30.06.2025 14:23:47</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
@@ -846,12 +846,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -859,7 +859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -870,7 +870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -881,7 +881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -889,7 +889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -900,7 +900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -908,7 +908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -916,299 +916,257 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K28" s="3">
-        <v>10</v>
-      </c>
-      <c r="L28" s="3">
         <v>11</v>
       </c>
-      <c r="M28" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.22360000014305115</v>
+        <v>0.67040002346038818</v>
       </c>
       <c r="C29">
-        <v>0.14630000293254852</v>
+        <v>0.60130000114440918</v>
       </c>
       <c r="D29">
-        <v>0.1500999927520752</v>
+        <v>0.56590002775192261</v>
       </c>
       <c r="E29">
-        <v>0.10970000177621841</v>
+        <v>1.7818000316619873</v>
       </c>
       <c r="F29">
-        <v>0.11630000174045563</v>
+        <v>1.7949999570846558</v>
       </c>
       <c r="G29">
-        <v>0.11540000140666962</v>
+        <v>1.8035000562667847</v>
       </c>
       <c r="H29">
-        <v>0.10679999738931656</v>
+        <v>2.5299999713897705</v>
       </c>
       <c r="I29">
-        <v>0.11089999973773956</v>
+        <v>2.5504000186920166</v>
       </c>
       <c r="J29">
-        <v>0.11710000038146973</v>
+        <v>2.5852000713348389</v>
       </c>
       <c r="K29">
-        <v>0.18930000066757202</v>
-      </c>
-      <c r="L29">
-        <v>0.21459999680519104</v>
-      </c>
-      <c r="M29">
-        <v>0.2824999988079071</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.22210000455379486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.17640000581741333</v>
+        <v>0.55580002069473267</v>
       </c>
       <c r="C30">
-        <v>0.13339999318122864</v>
+        <v>0.53719997406005859</v>
       </c>
       <c r="D30">
-        <v>0.13539999723434448</v>
+        <v>0.51099997758865356</v>
       </c>
       <c r="E30">
-        <v>0.1054999977350235</v>
+        <v>1.7172000408172607</v>
       </c>
       <c r="F30">
-        <v>0.11379999667406082</v>
+        <v>1.7131999731063843</v>
       </c>
       <c r="G30">
-        <v>9.3199998140335083E-2</v>
+        <v>1.6595000028610229</v>
       </c>
       <c r="H30">
-        <v>0.1103999987244606</v>
+        <v>1.9544999599456787</v>
       </c>
       <c r="I30">
-        <v>0.10589999705553055</v>
+        <v>1.9040999412536621</v>
       </c>
       <c r="J30">
-        <v>0.10859999805688858</v>
+        <v>1.9006999731063843</v>
       </c>
       <c r="K30">
-        <v>0.15970000624656677</v>
-      </c>
-      <c r="L30">
-        <v>0.15889999270439148</v>
-      </c>
-      <c r="M30">
-        <v>0.18330000340938568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.13979999721050262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.15680000185966492</v>
+        <v>0.63520002365112305</v>
       </c>
       <c r="C31">
-        <v>0.11980000138282776</v>
+        <v>0.6216999888420105</v>
       </c>
       <c r="D31">
-        <v>0.12030000239610672</v>
+        <v>0.62540000677108765</v>
       </c>
       <c r="E31">
-        <v>0.10509999841451645</v>
+        <v>0.125</v>
       </c>
       <c r="F31">
-        <v>9.9299997091293335E-2</v>
+        <v>0.12409999966621399</v>
       </c>
       <c r="G31">
-        <v>0.10639999806880951</v>
+        <v>0.12099999934434891</v>
       </c>
       <c r="H31">
-        <v>0.10159999877214432</v>
+        <v>1.2259999513626099</v>
       </c>
       <c r="I31">
-        <v>0.10189999639987946</v>
+        <v>1.2115999460220337</v>
       </c>
       <c r="J31">
-        <v>0.10520000010728836</v>
+        <v>1.2454999685287476</v>
       </c>
       <c r="K31">
-        <v>0.13120000064373016</v>
-      </c>
-      <c r="L31">
-        <v>0.13289999961853027</v>
-      </c>
-      <c r="M31">
-        <v>0.14280000329017639</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.17749999463558197</v>
+        <v>0.61979997158050537</v>
       </c>
       <c r="C32">
-        <v>0.13910000026226044</v>
+        <v>0.60170000791549683</v>
       </c>
       <c r="D32">
-        <v>0.13300000131130219</v>
+        <v>0.59289997816085815</v>
       </c>
       <c r="E32">
-        <v>0.27009999752044678</v>
+        <v>0.12540000677108765</v>
       </c>
       <c r="F32">
-        <v>0.27889999747276306</v>
+        <v>0.13140000402927399</v>
       </c>
       <c r="G32">
-        <v>0.26579999923706055</v>
+        <v>0.13030000030994415</v>
       </c>
       <c r="H32">
-        <v>0.49340000748634338</v>
+        <v>0.80409997701644897</v>
       </c>
       <c r="I32">
-        <v>0.49459999799728394</v>
+        <v>0.81980001926422119</v>
       </c>
       <c r="J32">
-        <v>0.46689999103546143</v>
+        <v>0.82810002565383911</v>
       </c>
       <c r="K32">
-        <v>9.5799997448921204E-2</v>
-      </c>
-      <c r="L32">
-        <v>9.9899999797344208E-2</v>
-      </c>
-      <c r="M32">
-        <v>0.11460000276565552</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.13189999759197235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.19519999623298645</v>
+        <v>0.21610000729560852</v>
       </c>
       <c r="C33">
-        <v>0.12999999523162842</v>
+        <v>0.1867000013589859</v>
       </c>
       <c r="D33">
-        <v>0.12989999353885651</v>
+        <v>0.18629999458789825</v>
       </c>
       <c r="E33">
-        <v>0.24879999458789825</v>
+        <v>3.8547000885009766</v>
       </c>
       <c r="F33">
-        <v>0.24879999458789825</v>
+        <v>3.836899995803833</v>
       </c>
       <c r="G33">
-        <v>0.25409999489784241</v>
+        <v>3.685499906539917</v>
       </c>
       <c r="H33">
-        <v>0.33309999108314514</v>
+        <v>0.57319998741149902</v>
       </c>
       <c r="I33">
-        <v>0.33919999003410339</v>
+        <v>0.56959998607635498</v>
       </c>
       <c r="J33">
-        <v>0.33039999008178711</v>
+        <v>0.59579998254776001</v>
       </c>
       <c r="K33">
-        <v>9.6299998462200165E-2</v>
-      </c>
-      <c r="L33">
-        <v>9.920000284910202E-2</v>
-      </c>
-      <c r="M33">
-        <v>0.13040000200271606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.13300000131130219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.24519999325275421</v>
+        <v>0.28580000996589661</v>
       </c>
       <c r="C34">
-        <v>0.12559999525547028</v>
+        <v>0.21109999716281891</v>
       </c>
       <c r="D34">
-        <v>0.12060000002384186</v>
+        <v>0.21150000393390656</v>
       </c>
       <c r="E34">
-        <v>0.22830000519752502</v>
+        <v>3.4748001098632812</v>
       </c>
       <c r="F34">
-        <v>0.20960000157356262</v>
+        <v>3.364799976348877</v>
       </c>
       <c r="G34">
-        <v>0.20839999616146088</v>
+        <v>3.3297998905181885</v>
       </c>
       <c r="H34">
-        <v>0.27149999141693115</v>
+        <v>0.38209998607635498</v>
       </c>
       <c r="I34">
-        <v>0.26469999551773071</v>
+        <v>0.38190001249313354</v>
       </c>
       <c r="J34">
-        <v>0.25200000405311584</v>
+        <v>0.38130000233650208</v>
       </c>
       <c r="K34">
-        <v>9.7199998795986176E-2</v>
-      </c>
-      <c r="L34">
-        <v>0.11940000206232071</v>
-      </c>
-      <c r="M34">
-        <v>0.19609999656677246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.17630000412464142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
